--- a/Image Crawler/Data_Info.xlsx
+++ b/Image Crawler/Data_Info.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pilot_Dataset" sheetId="1" r:id="rId1"/>
@@ -2294,7 +2294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E401"/>
   <sheetViews>
-    <sheetView topLeftCell="A380" workbookViewId="0">
+    <sheetView topLeftCell="A236" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -9112,7 +9112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -11429,7 +11429,7 @@
         <v>64</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D85" si="3">"PILOT/"&amp;A67</f>
+        <f t="shared" ref="D67:D81" si="3">"PILOT/"&amp;A67</f>
         <v>PILOT/GSV_PILOT_64_2.jpg</v>
       </c>
       <c r="E67">
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" ref="F67:F86" si="4">B86&amp;","&amp;C86&amp;","&amp;D86&amp;","&amp;E86&amp;",,"</f>
+        <f t="shared" ref="F86" si="4">B86&amp;","&amp;C86&amp;","&amp;D86&amp;","&amp;E86&amp;",,"</f>
         <v>10005,9999,Training/golden5,0,,</v>
       </c>
     </row>
@@ -12102,8 +12102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
